--- a/data/ktc/Re-Revised Sch. 01.02.24.xlsx
+++ b/data/ktc/Re-Revised Sch. 01.02.24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mydata\Projects\NewYug\raloa1\data\ktc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF16D84-AB5C-4B66-817E-9CF3F1DF9BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C4F0A6-F434-4608-91B6-48ACA8F827AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,6 +36,24 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={FB227EF7-4A1C-4D75-A663-7F521E9959C8}</author>
+  </authors>
+  <commentList>
+    <comment ref="C146" authorId="0" shapeId="0" xr:uid="{FB227EF7-4A1C-4D75-A663-7F521E9959C8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Should have been SRI</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5296,6 +5314,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Yash Ganthe" id="{42A932C9-CFE9-4CDC-B94A-F0F530D9DD5C}" userId="S::yash_ganthe@persistent.com::07d85bcd-f1f3-4774-b0b1-547837f5af21" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63B7C574-5696-4408-8D20-24663D5D6A25}" name="Table1" displayName="Table1" ref="A1:A1048576" totalsRowShown="0">
   <autoFilter ref="A1:A1048576" xr:uid="{63B7C574-5696-4408-8D20-24663D5D6A25}">
@@ -5607,12 +5631,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C146" dT="2024-05-24T04:15:36.45" personId="{42A932C9-CFE9-4CDC-B94A-F0F530D9DD5C}" id="{FB227EF7-4A1C-4D75-A663-7F521E9959C8}">
+    <text>Should have been SRI</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P944"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A432" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E435" sqref="E435"/>
+    <sheetView tabSelected="1" topLeftCell="A774" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O772" sqref="O772"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -24987,7 +25019,7 @@
       <c r="N851" s="2"/>
       <c r="O851" s="54"/>
     </row>
-    <row r="852" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A852" s="3" t="s">
         <v>415</v>
       </c>
@@ -26295,6 +26327,7 @@
   <pageMargins left="0.55965222711638207" right="0.44994377714442457" top="0.60964602185046579" bottom="0.5499312258142186" header="0.29996251027415122" footer="0.29996251027415122"/>
   <pageSetup paperSize="5" orientation="landscape"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -27380,7 +27413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G128"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
@@ -28849,7 +28882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
@@ -29360,7 +29393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:J511"/>
   <sheetViews>
-    <sheetView topLeftCell="A376" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A501" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K393" sqref="K393"/>
     </sheetView>
   </sheetViews>
